--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -168,20 +168,19 @@
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,31 +242,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,35 +553,37 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>20000</v>
       </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -596,45 +603,45 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>44927</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>35000</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>44928</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>20000</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>44929</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>3650</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -5,15 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="2月" sheetId="2" r:id="rId2"/>
+    <sheet name="3月" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$A$6:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>かんたん家計簿</t>
     <rPh sb="4" eb="7">
@@ -64,13 +71,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>費用</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>支出</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
@@ -116,6 +116,89 @@
     <t>お年玉</t>
     <rPh sb="1" eb="3">
       <t>トシダマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交通費</t>
+    <rPh sb="0" eb="3">
+      <t>コウツウヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>交際費</t>
+    <rPh sb="0" eb="3">
+      <t>コウサイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>趣味・娯楽</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴラク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日用品</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>健康・医療</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新年会</t>
+    <rPh sb="0" eb="3">
+      <t>シンネンカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>映画</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>歯医者</t>
+    <rPh sb="0" eb="3">
+      <t>ハイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>費目</t>
+    <rPh sb="0" eb="2">
+      <t>ヒモク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -124,6 +207,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +266,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,7 +287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,43 +336,98 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,104 +703,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUM(C7:C17)</f>
+        <v>165910</v>
+      </c>
+      <c r="C4" s="7">
+        <f>A4-B4</f>
+        <v>34090</v>
+      </c>
+      <c r="E4" s="7">
+        <f>A4*0.8</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44927</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>35000</v>
+      </c>
+      <c r="D7" s="7">
+        <f>C7</f>
+        <v>35000</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>44928</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
         <v>20000</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>44927</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>35000</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D8" s="7">
+        <f>D7+C8</f>
+        <v>55000</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>44928</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3650</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9+D8</f>
+        <v>58650</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>44931</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:D17" si="0">C10+D9</f>
+        <v>61650</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>44934</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>44928</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C11" s="4">
+        <v>800</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>62450</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>44934</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>66450</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>44936</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>44929</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3650</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C13" s="4">
+        <v>4200</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>70650</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>44937</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1800</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>72450</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>44939</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12800</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>85250</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>44941</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <v>75400</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>160650</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>44944</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5260</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>165910</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:E17"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7">
+        <f>SUM(C7:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7">
+        <f>C9+D8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:D17" si="0">C10+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7">
+        <f>SUM(C7:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7">
+        <f>C9+D8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:D17" si="0">C10+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
